--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-858146.1356286672</v>
+        <v>-860033.7171450689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>250.1325537001773</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>269.6686413164966</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>118.0056219508402</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.7443338701757</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>101.7602638082835</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>119.0805886067739</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>52.4736908254684</v>
+        <v>139.3733281349269</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>370.1958323978462</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>350.9489277422339</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690822</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2381480623296</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>39.21716692389643</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>32.896576741378</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985768</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>89.09646007723597</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>170.4823919993434</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170.5105409241913</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>34.26584747916399</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151919</v>
       </c>
       <c r="V22" t="n">
-        <v>186.2972650202531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>210.6302519749046</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>235.2707607354173</v>
+        <v>93.4242737509196</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>73.49172644326663</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965513</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523558</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>144.0725266431589</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463226</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051966</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463137</v>
@@ -4150,7 +4150,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1409.824428977775</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.4256366790474</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511405</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>173.1405797505061</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>173.1405797505061</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>173.1405797505061</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>173.1405797505061</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>597.0741015092871</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="X4" t="n">
-        <v>597.0741015092871</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="Y4" t="n">
-        <v>597.0741015092871</v>
+        <v>323.2572191628418</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.146815977588</v>
+        <v>2074.424788715902</v>
       </c>
       <c r="D5" t="n">
-        <v>1139.146815977588</v>
+        <v>1716.159090109152</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1330.370837510907</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>919.3849327212999</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>501.4211246194868</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>174.2264046554897</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>2443.387305656314</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392339</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2112.324418312743</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C8" t="n">
-        <v>1743.361901372331</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D8" t="n">
-        <v>1385.096202765581</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E8" t="n">
-        <v>999.3079501673367</v>
+        <v>819.4227530162689</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>408.4368482266613</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.324418312743</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y8" t="n">
-        <v>2112.324418312743</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
         <v>2568.06040664989</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,40 +5036,40 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.9470307957491</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241941</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688055</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799347</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1465.68740516257</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1265.767395078122</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1041.981979867628</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>752.8533410811858</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609669</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240062</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259889</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259889</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5373,10 +5373,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3055067228584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1408.919846237462</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1408.919846237462</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1185.134431026968</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227922</v>
+        <v>1185.134431026968</v>
       </c>
       <c r="V16" t="n">
-        <v>702.722676759819</v>
+        <v>930.4499428210811</v>
       </c>
       <c r="W16" t="n">
-        <v>413.3055067228584</v>
+        <v>641.0327727841204</v>
       </c>
       <c r="X16" t="n">
-        <v>413.3055067228584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.3055067228584</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630132</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630132</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630132</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>282.2470670630132</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344997</v>
+        <v>731.0291971045607</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617344997</v>
+        <v>503.0396462065434</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.5778825909697</v>
+        <v>282.2470670630132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,52 +5750,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488385</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>710.6134626728253</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>710.6134626728253</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>1086.238430195773</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706316</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336709</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529252</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529252</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,13 +6245,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754432</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384826</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.686636926035</v>
+        <v>656.2176762508384</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794989</v>
+        <v>543.0423586043024</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485341</v>
+        <v>448.6865844733376</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475118</v>
+        <v>356.5343561723154</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309717</v>
+        <v>265.405273955776</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1478.414563633815</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1279.490940709299</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.834635953709</v>
+        <v>902.6804289818954</v>
       </c>
       <c r="X31" t="n">
-        <v>873.6059503370631</v>
+        <v>730.4517433652492</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.5742364749038</v>
+        <v>730.4517433652492</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504523</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210314</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982983</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7002,16 +7002,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,19 +7023,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7157,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229663</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,49 +7570,49 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7631,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298017</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>128.0296541747314</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>77.06777566241479</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,19 +23653,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.86789232655681</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>81.65525132448457</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.321439257746023</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>111.1552005437673</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="V22" t="n">
-        <v>65.84037830357489</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>75.6071004236727</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338594</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>50.96659166316002</v>
+        <v>192.8130786476577</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>51.13699711011345</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>86.96156912686131</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -26332,28 +26332,28 @@
         <v>175963.076881969</v>
       </c>
       <c r="I2" t="n">
+        <v>175963.0768819691</v>
+      </c>
+      <c r="J2" t="n">
         <v>175963.076881969</v>
-      </c>
-      <c r="J2" t="n">
-        <v>175963.0768819691</v>
       </c>
       <c r="K2" t="n">
         <v>183069.9618053713</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194641</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>184734.3982194641</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194638</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194641</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194639</v>
       </c>
     </row>
     <row r="3">
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086678</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284581</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26433,28 +26433,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563569</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275965</v>
+        <v>37464.45686275961</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275954</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002536</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>-54899.6380951684</v>
       </c>
       <c r="D6" t="n">
-        <v>-54899.63809516848</v>
+        <v>-54899.63809516846</v>
       </c>
       <c r="E6" t="n">
-        <v>-456229.9551650828</v>
+        <v>-456327.414291055</v>
       </c>
       <c r="F6" t="n">
-        <v>68930.08131181326</v>
+        <v>68832.62218584113</v>
       </c>
       <c r="G6" t="n">
-        <v>68930.08131181326</v>
+        <v>68832.62218584113</v>
       </c>
       <c r="H6" t="n">
-        <v>68930.08131181326</v>
+        <v>68832.62218584107</v>
       </c>
       <c r="I6" t="n">
-        <v>68930.08131181326</v>
+        <v>68832.62218584135</v>
       </c>
       <c r="J6" t="n">
-        <v>-107493.1378807796</v>
+        <v>-107590.5970067519</v>
       </c>
       <c r="K6" t="n">
-        <v>9068.85583666715</v>
+        <v>9050.362098732705</v>
       </c>
       <c r="L6" t="n">
-        <v>39211.92873581212</v>
+        <v>39211.92873581235</v>
       </c>
       <c r="M6" t="n">
-        <v>-85246.17969715799</v>
+        <v>-85246.17969715825</v>
       </c>
       <c r="N6" t="n">
-        <v>49554.83553667882</v>
+        <v>49554.83553667912</v>
       </c>
       <c r="O6" t="n">
-        <v>49554.83553667912</v>
+        <v>49554.83553667908</v>
       </c>
       <c r="P6" t="n">
-        <v>5392.230233833368</v>
+        <v>5392.230233833136</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,28 +26753,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>99.10841501723573</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>116.569297339557</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>38.16526689095494</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.7786644664153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>280.1701062639783</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>32.85072763808731</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>114.7731302731594</v>
+        <v>27.87349296370098</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>36.6802133438652</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>62.83524227856111</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717196</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04372617964810388</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.850638409455617e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556385</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084857</v>
@@ -37005,10 +37005,10 @@
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
